--- a/SmartShopper/dashboard/static/customerTemplate.xlsx
+++ b/SmartShopper/dashboard/static/customerTemplate.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Orange Juice[2]</t>
+          <t>Wata[7]</t>
         </is>
       </c>
     </row>
